--- a/WHO-DATA-SETS/ExcelDataSets/20200127-sitrep-7-2019--ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200127-sitrep-7-2019--ncov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13EFE72-4B24-45C3-AE3F-CFB433F47C41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD315AF5-B6BC-4451-BE12-FE8D7F695C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -30,7 +30,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>WHO Regional Office</t>
+      <t>Country/Territory/Area</t>
     </r>
   </si>
   <si>
@@ -42,7 +42,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Country/Territory/Area</t>
+      <t>Confirmed Cases</t>
     </r>
   </si>
   <si>
@@ -50,18 +50,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Confirmed Cases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -79,18 +67,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Western Pacific</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -151,18 +127,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>South-East Asia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -183,18 +147,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Region of the Americas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -215,35 +167,11 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>European Region</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>France</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Total Confirmed cases</t>
     </r>
   </si>
   <si>
@@ -261,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -289,10 +217,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -331,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,7 +264,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -356,17 +282,6 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
@@ -376,67 +291,12 @@
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4F81BC"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4F81BC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4F81BC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF4F81BC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4F81BC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4F81BC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4F81BC"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -444,81 +304,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,241 +667,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="108.75" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="23.85" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.85" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B2" s="4">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
-        <v>2761</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B3" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="24.6" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14">
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13" t="s">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.6" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.45" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.45" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="B14" s="7">
         <v>2798</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="60.2" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="264.60000000000002" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:E18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WHO-DATA-SETS/ExcelDataSets/20200127-sitrep-7-2019--ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200127-sitrep-7-2019--ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD315AF5-B6BC-4451-BE12-FE8D7F695C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0653C73A-978E-46F5-AFB8-81A2E1B09BEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -308,26 +308,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +670,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -680,114 +680,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.85" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2761</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.6" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.6" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23.45" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>2798</v>
       </c>
     </row>
